--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_9_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_9_19.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>549640.0145523672</v>
+        <v>555391.1701159438</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11644981.99039515</v>
+        <v>11359349.35966615</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9476998.056836044</v>
+        <v>9190974.085797962</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8345394.742105019</v>
+        <v>8497139.897773612</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>93.23600175548214</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>82.12227034622866</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>26.12053376979356</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>213.5485795218851</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>213.5485795218851</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>135.0311919058473</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>26.94186316723548</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.5485795218851</v>
+        <v>93.23600175548214</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>93.23600175548214</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>53.46315440936637</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -786,19 +786,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>152.2346395659595</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.9443743894355</v>
+        <v>82.12227034622866</v>
       </c>
       <c r="U3" t="n">
-        <v>213.5485795218851</v>
+        <v>93.23600175548214</v>
       </c>
       <c r="V3" t="n">
-        <v>213.5485795218851</v>
+        <v>93.23600175548214</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>93.23600175548214</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>93.23600175548214</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>93.23600175548214</v>
       </c>
       <c r="H4" t="n">
-        <v>139.596085750935</v>
+        <v>82.12227034622866</v>
       </c>
       <c r="I4" t="n">
-        <v>129.0522374190076</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>137.8237170374452</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>208.7187076792586</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>213.5485795218851</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>93.23600175548214</v>
       </c>
     </row>
     <row r="5">
@@ -896,14 +896,14 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>70.02631374670425</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>255.0853779233022</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>224.6792008748445</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>255.0853779233022</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>255.0853779233022</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>255.0853779233022</v>
       </c>
     </row>
     <row r="6">
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -1023,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.9721212459916</v>
+        <v>91.82318240085992</v>
       </c>
       <c r="T6" t="n">
-        <v>189.6169912108296</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8573996139459</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20.72216277472013</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>55.67003038436528</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
         <v>17.69584188176898</v>
@@ -1111,13 +1111,13 @@
         <v>255.0853779233022</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>232.2791855053265</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>263.7138800015061</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>263.7138800015061</v>
+        <v>72.27425148811096</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,28 +1209,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>20.22295923705085</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>127.4695742187184</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>86.31015131185561</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>1.781160222249884</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1370,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>89.12985772078963</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>170.8922991575393</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I12" t="n">
-        <v>20.2229592370504</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.30660220273212</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>147.2515091551288</v>
@@ -1582,13 +1582,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>261.9657095888484</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1607,13 +1607,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1625,7 +1625,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I14" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>42.68052496925149</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>198.9430992003371</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I15" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>134.3646350838588</v>
+        <v>134.3646350838592</v>
       </c>
       <c r="T15" t="n">
         <v>192.0665623188214</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.30660220273212</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>104.7965952039006</v>
+        <v>1.781160222249666</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,16 +1819,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H17" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>206.6581849802338</v>
+        <v>161.972675886686</v>
       </c>
       <c r="U17" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>113.9010116406476</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I18" t="n">
-        <v>20.2229592370504</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>108.176334161513</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>51.80709614926697</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,16 +2056,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2090,16 +2090,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>313.2489925934962</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.045250128462</v>
+        <v>210.4888426753279</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2178,7 +2178,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I21" t="n">
-        <v>20.2229592370504</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,16 +2242,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>20.52949037814305</v>
+        <v>33.28962109883653</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2327,16 +2327,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H23" t="n">
-        <v>155.5072594819823</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2372,19 +2372,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>356.7855489196745</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>193.5534233013597</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2539,10 +2539,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>144.8586974472232</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>219.7813179529428</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2561,19 +2561,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H26" t="n">
-        <v>142.5375742161627</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,22 +2606,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>14.16432234165151</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I28" t="n">
         <v>104.7965952039006</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>144.8586974472232</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2789,22 +2789,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>295.9184714368271</v>
+        <v>193.1994278308467</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2849,13 +2849,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2953,19 +2953,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>127.413232547014</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>16.30782533948699</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3032,10 +3032,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3086,7 +3086,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V32" t="n">
-        <v>258.2674094001507</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>31.3441517620537</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>23.94563726208618</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.781160222249139</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>34.10151631458841</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H35" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T35" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>75.36405566910211</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>92.53704794017737</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>144.8586974472232</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3509,10 +3509,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3560,13 +3560,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V38" t="n">
-        <v>290.6257780267401</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>365.4012472919476</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3585,7 +3585,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646386</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -3600,7 +3600,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I39" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,16 +3658,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>79.41653965146595</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3712,13 +3712,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V40" t="n">
-        <v>196.4017961483597</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>186.5453171283409</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>60.92507376311072</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H41" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3797,16 +3797,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3977,19 +3977,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>85.52226336418008</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U44" t="n">
-        <v>251.045250128462</v>
+        <v>198.7445865221337</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4071,7 +4071,7 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H45" t="n">
-        <v>92.8315678926961</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I45" t="n">
         <v>20.22295923705012</v>
@@ -4141,7 +4141,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>90.7876544358999</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,10 +4189,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>90.69811547110066</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>611.2746790076206</v>
+        <v>90.41066836895237</v>
       </c>
       <c r="C2" t="n">
-        <v>611.2746790076206</v>
+        <v>7.458880140438571</v>
       </c>
       <c r="D2" t="n">
-        <v>611.2746790076206</v>
+        <v>7.458880140438571</v>
       </c>
       <c r="E2" t="n">
-        <v>611.2746790076206</v>
+        <v>7.458880140438571</v>
       </c>
       <c r="F2" t="n">
-        <v>584.8903014623746</v>
+        <v>7.458880140438571</v>
       </c>
       <c r="G2" t="n">
-        <v>369.1846655816826</v>
+        <v>7.458880140438571</v>
       </c>
       <c r="H2" t="n">
-        <v>153.4790297009905</v>
+        <v>7.458880140438571</v>
       </c>
       <c r="I2" t="n">
-        <v>17.08388636175081</v>
+        <v>7.458880140438571</v>
       </c>
       <c r="J2" t="n">
-        <v>169.6854929049839</v>
+        <v>7.458880140438571</v>
       </c>
       <c r="K2" t="n">
-        <v>198.2365890298814</v>
+        <v>7.458880140438571</v>
       </c>
       <c r="L2" t="n">
-        <v>270.5585102913741</v>
+        <v>99.76252187836587</v>
       </c>
       <c r="M2" t="n">
-        <v>382.7000200812583</v>
+        <v>192.0661636162932</v>
       </c>
       <c r="N2" t="n">
-        <v>501.2699051187147</v>
+        <v>284.3698053542205</v>
       </c>
       <c r="O2" t="n">
-        <v>605.1967307614507</v>
+        <v>284.3698053542205</v>
       </c>
       <c r="P2" t="n">
-        <v>654.8715234096256</v>
+        <v>372.9440070219285</v>
       </c>
       <c r="Q2" t="n">
-        <v>854.1943180875404</v>
+        <v>372.9440070219285</v>
       </c>
       <c r="R2" t="n">
-        <v>826.9803148883127</v>
+        <v>372.9440070219285</v>
       </c>
       <c r="S2" t="n">
-        <v>826.9803148883127</v>
+        <v>372.9440070219285</v>
       </c>
       <c r="T2" t="n">
-        <v>611.2746790076206</v>
+        <v>278.7662274709365</v>
       </c>
       <c r="U2" t="n">
-        <v>611.2746790076206</v>
+        <v>184.5884479199444</v>
       </c>
       <c r="V2" t="n">
-        <v>611.2746790076206</v>
+        <v>184.5884479199444</v>
       </c>
       <c r="W2" t="n">
-        <v>611.2746790076206</v>
+        <v>184.5884479199444</v>
       </c>
       <c r="X2" t="n">
-        <v>611.2746790076206</v>
+        <v>184.5884479199444</v>
       </c>
       <c r="Y2" t="n">
-        <v>611.2746790076206</v>
+        <v>184.5884479199444</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>71.08707263383806</v>
+        <v>7.458880140438571</v>
       </c>
       <c r="C3" t="n">
-        <v>17.08388636175081</v>
+        <v>7.458880140438571</v>
       </c>
       <c r="D3" t="n">
-        <v>17.08388636175081</v>
+        <v>7.458880140438571</v>
       </c>
       <c r="E3" t="n">
-        <v>17.08388636175081</v>
+        <v>7.458880140438571</v>
       </c>
       <c r="F3" t="n">
-        <v>17.08388636175081</v>
+        <v>7.458880140438571</v>
       </c>
       <c r="G3" t="n">
-        <v>17.08388636175081</v>
+        <v>7.458880140438571</v>
       </c>
       <c r="H3" t="n">
-        <v>17.08388636175081</v>
+        <v>7.458880140438571</v>
       </c>
       <c r="I3" t="n">
-        <v>17.08388636175081</v>
+        <v>7.458880140438571</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2789781102342</v>
+        <v>7.458880140438571</v>
       </c>
       <c r="K3" t="n">
-        <v>244.5450113752819</v>
+        <v>7.458880140438571</v>
       </c>
       <c r="L3" t="n">
-        <v>332.4462009527905</v>
+        <v>7.458880140438571</v>
       </c>
       <c r="M3" t="n">
-        <v>543.8592946794568</v>
+        <v>7.458880140438571</v>
       </c>
       <c r="N3" t="n">
-        <v>683.4285645216789</v>
+        <v>96.03308180814662</v>
       </c>
       <c r="O3" t="n">
-        <v>788.8873841584985</v>
+        <v>188.3367235460739</v>
       </c>
       <c r="P3" t="n">
-        <v>854.1943180875404</v>
+        <v>280.6403652840012</v>
       </c>
       <c r="Q3" t="n">
-        <v>854.1943180875404</v>
+        <v>372.9440070219285</v>
       </c>
       <c r="R3" t="n">
-        <v>854.1943180875404</v>
+        <v>372.9440070219285</v>
       </c>
       <c r="S3" t="n">
-        <v>700.4219548896015</v>
+        <v>372.9440070219285</v>
       </c>
       <c r="T3" t="n">
-        <v>502.4983443952221</v>
+        <v>289.9922187934147</v>
       </c>
       <c r="U3" t="n">
-        <v>286.7927085145301</v>
+        <v>195.8144392424227</v>
       </c>
       <c r="V3" t="n">
-        <v>71.08707263383806</v>
+        <v>101.6366596914306</v>
       </c>
       <c r="W3" t="n">
-        <v>71.08707263383806</v>
+        <v>7.458880140438571</v>
       </c>
       <c r="X3" t="n">
-        <v>71.08707263383806</v>
+        <v>7.458880140438571</v>
       </c>
       <c r="Y3" t="n">
-        <v>71.08707263383806</v>
+        <v>7.458880140438571</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>288.4458289576525</v>
+        <v>278.7662274709365</v>
       </c>
       <c r="C4" t="n">
-        <v>288.4458289576525</v>
+        <v>184.5884479199444</v>
       </c>
       <c r="D4" t="n">
-        <v>288.4458289576525</v>
+        <v>184.5884479199444</v>
       </c>
       <c r="E4" t="n">
-        <v>288.4458289576525</v>
+        <v>184.5884479199444</v>
       </c>
       <c r="F4" t="n">
-        <v>288.4458289576525</v>
+        <v>184.5884479199444</v>
       </c>
       <c r="G4" t="n">
-        <v>288.4458289576525</v>
+        <v>90.41066836895237</v>
       </c>
       <c r="H4" t="n">
-        <v>147.4396817344857</v>
+        <v>7.458880140438571</v>
       </c>
       <c r="I4" t="n">
-        <v>17.08388636175081</v>
+        <v>7.458880140438571</v>
       </c>
       <c r="J4" t="n">
-        <v>17.08388636175081</v>
+        <v>7.458880140438571</v>
       </c>
       <c r="K4" t="n">
-        <v>96.0031658150366</v>
+        <v>20.907374732325</v>
       </c>
       <c r="L4" t="n">
-        <v>252.5191071612721</v>
+        <v>93.64325225826911</v>
       </c>
       <c r="M4" t="n">
-        <v>427.9323452510818</v>
+        <v>180.7221598813253</v>
       </c>
       <c r="N4" t="n">
-        <v>604.609265028834</v>
+        <v>271.1651421338868</v>
       </c>
       <c r="O4" t="n">
-        <v>751.7827009172095</v>
+        <v>338.6875793505066</v>
       </c>
       <c r="P4" t="n">
-        <v>854.1943180875404</v>
+        <v>372.9440070219285</v>
       </c>
       <c r="Q4" t="n">
-        <v>854.1943180875404</v>
+        <v>372.9440070219285</v>
       </c>
       <c r="R4" t="n">
-        <v>714.9784422921412</v>
+        <v>372.9440070219285</v>
       </c>
       <c r="S4" t="n">
-        <v>504.1514648383445</v>
+        <v>372.9440070219285</v>
       </c>
       <c r="T4" t="n">
-        <v>288.4458289576525</v>
+        <v>372.9440070219285</v>
       </c>
       <c r="U4" t="n">
-        <v>288.4458289576525</v>
+        <v>372.9440070219285</v>
       </c>
       <c r="V4" t="n">
-        <v>288.4458289576525</v>
+        <v>372.9440070219285</v>
       </c>
       <c r="W4" t="n">
-        <v>288.4458289576525</v>
+        <v>372.9440070219285</v>
       </c>
       <c r="X4" t="n">
-        <v>288.4458289576525</v>
+        <v>372.9440070219285</v>
       </c>
       <c r="Y4" t="n">
-        <v>288.4458289576525</v>
+        <v>278.7662274709365</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>278.0688281361897</v>
+        <v>348.8024783853859</v>
       </c>
       <c r="C5" t="n">
         <v>278.0688281361897</v>
       </c>
       <c r="D5" t="n">
-        <v>20.40683023386418</v>
+        <v>278.0688281361897</v>
       </c>
       <c r="E5" t="n">
         <v>20.40683023386418</v>
@@ -4577,13 +4577,13 @@
         <v>450.2323034685007</v>
       </c>
       <c r="N5" t="n">
-        <v>644.5665163604831</v>
+        <v>702.7668276125698</v>
       </c>
       <c r="O5" t="n">
-        <v>814.7355416774426</v>
+        <v>872.9358529295293</v>
       </c>
       <c r="P5" t="n">
-        <v>925.4698669269691</v>
+        <v>983.6701781790558</v>
       </c>
       <c r="Q5" t="n">
         <v>1020.341511693209</v>
@@ -4592,25 +4592,25 @@
         <v>1020.341511693209</v>
       </c>
       <c r="S5" t="n">
-        <v>1020.341511693209</v>
+        <v>864.126474190037</v>
       </c>
       <c r="T5" t="n">
-        <v>1020.341511693209</v>
+        <v>864.126474190037</v>
       </c>
       <c r="U5" t="n">
-        <v>1020.341511693209</v>
+        <v>864.126474190037</v>
       </c>
       <c r="V5" t="n">
-        <v>793.3928239408408</v>
+        <v>864.126474190037</v>
       </c>
       <c r="W5" t="n">
-        <v>535.7308260385153</v>
+        <v>864.126474190037</v>
       </c>
       <c r="X5" t="n">
-        <v>278.0688281361897</v>
+        <v>606.4644762877115</v>
       </c>
       <c r="Y5" t="n">
-        <v>278.0688281361897</v>
+        <v>348.8024783853859</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4620,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>451.2036207126362</v>
+        <v>759.375485379343</v>
       </c>
       <c r="C6" t="n">
-        <v>451.2036207126362</v>
+        <v>759.375485379343</v>
       </c>
       <c r="D6" t="n">
-        <v>451.2036207126362</v>
+        <v>610.4410757180917</v>
       </c>
       <c r="E6" t="n">
         <v>451.2036207126362</v>
@@ -4656,13 +4656,13 @@
         <v>404.74158426752</v>
       </c>
       <c r="N6" t="n">
-        <v>603.3983259201847</v>
+        <v>657.2761084115892</v>
       </c>
       <c r="O6" t="n">
-        <v>762.9106385889453</v>
+        <v>816.7884210803498</v>
       </c>
       <c r="P6" t="n">
-        <v>871.6002661162441</v>
+        <v>997.604570491232</v>
       </c>
       <c r="Q6" t="n">
         <v>1020.341511693209</v>
@@ -4671,25 +4671,25 @@
         <v>1020.341511693209</v>
       </c>
       <c r="S6" t="n">
-        <v>870.8747225558437</v>
+        <v>927.5908223994111</v>
       </c>
       <c r="T6" t="n">
-        <v>679.3424082014703</v>
+        <v>927.5908223994111</v>
       </c>
       <c r="U6" t="n">
-        <v>451.2036207126362</v>
+        <v>927.5908223994111</v>
       </c>
       <c r="V6" t="n">
-        <v>451.2036207126362</v>
+        <v>927.5908223994111</v>
       </c>
       <c r="W6" t="n">
-        <v>451.2036207126362</v>
+        <v>927.5908223994111</v>
       </c>
       <c r="X6" t="n">
-        <v>451.2036207126362</v>
+        <v>927.5908223994111</v>
       </c>
       <c r="Y6" t="n">
-        <v>451.2036207126362</v>
+        <v>927.5908223994111</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.2814179932268</v>
+        <v>541.8869346473533</v>
       </c>
       <c r="C7" t="n">
-        <v>38.2814179932268</v>
+        <v>541.8869346473533</v>
       </c>
       <c r="D7" t="n">
-        <v>38.2814179932268</v>
+        <v>541.8869346473533</v>
       </c>
       <c r="E7" t="n">
-        <v>38.2814179932268</v>
+        <v>541.8869346473533</v>
       </c>
       <c r="F7" t="n">
-        <v>38.2814179932268</v>
+        <v>485.654580723752</v>
       </c>
       <c r="G7" t="n">
-        <v>38.2814179932268</v>
+        <v>317.0477357191354</v>
       </c>
       <c r="H7" t="n">
-        <v>38.2814179932268</v>
+        <v>162.7930926189005</v>
       </c>
       <c r="I7" t="n">
         <v>38.2814179932268</v>
@@ -4759,16 +4759,16 @@
         <v>762.6795137908834</v>
       </c>
       <c r="V7" t="n">
-        <v>507.9950255849966</v>
+        <v>762.6795137908834</v>
       </c>
       <c r="W7" t="n">
-        <v>507.9950255849966</v>
+        <v>762.6795137908834</v>
       </c>
       <c r="X7" t="n">
-        <v>280.0054746869793</v>
+        <v>762.6795137908834</v>
       </c>
       <c r="Y7" t="n">
-        <v>59.21289554344915</v>
+        <v>541.8869346473533</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>788.4778634388466</v>
+        <v>1262.465201337208</v>
       </c>
       <c r="C8" t="n">
-        <v>788.4778634388466</v>
+        <v>893.5026843967964</v>
       </c>
       <c r="D8" t="n">
-        <v>788.4778634388466</v>
+        <v>535.236985790046</v>
       </c>
       <c r="E8" t="n">
-        <v>553.8524235344764</v>
+        <v>535.236985790046</v>
       </c>
       <c r="F8" t="n">
-        <v>287.4747669672984</v>
+        <v>124.2510810004384</v>
       </c>
       <c r="G8" t="n">
-        <v>21.09711040012049</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H8" t="n">
-        <v>21.09711040012049</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
-        <v>21.09711040012049</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>49.28269087917579</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>142.264087905254</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>294.5174947515903</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
-        <v>495.5981834030603</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>704.5463761991316</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>888.5149683358413</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>1011.026904601763</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>1054.855520006025</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>1054.855520006025</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>1054.855520006025</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>1054.855520006025</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>1054.855520006025</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V8" t="n">
-        <v>1054.855520006025</v>
+        <v>2022.53079966241</v>
       </c>
       <c r="W8" t="n">
-        <v>1054.855520006025</v>
+        <v>2022.53079966241</v>
       </c>
       <c r="X8" t="n">
-        <v>1054.855520006025</v>
+        <v>1649.06504140133</v>
       </c>
       <c r="Y8" t="n">
-        <v>788.4778634388466</v>
+        <v>1649.06504140133</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21.09711040012049</v>
+        <v>931.3041410966393</v>
       </c>
       <c r="C9" t="n">
-        <v>21.09711040012049</v>
+        <v>756.8511118155124</v>
       </c>
       <c r="D9" t="n">
-        <v>21.09711040012049</v>
+        <v>607.9167021542611</v>
       </c>
       <c r="E9" t="n">
-        <v>21.09711040012049</v>
+        <v>448.6792471488056</v>
       </c>
       <c r="F9" t="n">
-        <v>21.09711040012049</v>
+        <v>302.1446891756906</v>
       </c>
       <c r="G9" t="n">
-        <v>21.09711040012049</v>
+        <v>165.4432786182527</v>
       </c>
       <c r="H9" t="n">
-        <v>21.09711040012049</v>
+        <v>71.67401812057973</v>
       </c>
       <c r="I9" t="n">
-        <v>21.09711040012049</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>21.09711040012049</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>95.78113116957465</v>
+        <v>614.5430248380228</v>
       </c>
       <c r="L9" t="n">
-        <v>242.5255548298713</v>
+        <v>909.2465818694947</v>
       </c>
       <c r="M9" t="n">
-        <v>433.1262439263951</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N9" t="n">
-        <v>643.1802110290001</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>813.1187583557299</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P9" t="n">
-        <v>1026.524810789493</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q9" t="n">
-        <v>1054.855520006025</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R9" t="n">
-        <v>1054.855520006025</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
-        <v>1054.855520006025</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>1054.855520006025</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>926.0983743305515</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>690.9462660988088</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W9" t="n">
-        <v>436.7089093706072</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>228.8574091650744</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>21.09711040012049</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>786.0250841537085</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="C10" t="n">
-        <v>617.0889012258016</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="D10" t="n">
-        <v>466.9722618134659</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="E10" t="n">
-        <v>466.9722618134659</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F10" t="n">
-        <v>466.9722618134659</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G10" t="n">
-        <v>298.4029011684693</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H10" t="n">
-        <v>144.4815281019473</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>21.09711040012049</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>21.09711040012049</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K10" t="n">
-        <v>126.4133765287947</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>316.7083726551009</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>527.7368878375335</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
-        <v>739.1822330227045</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>918.4699372075542</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1048.360858816803</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1054.855520006025</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>967.6735489839482</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>967.6735489839482</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>967.6735489839482</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>967.6735489839482</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="V10" t="n">
-        <v>967.6735489839482</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="W10" t="n">
-        <v>967.6735489839482</v>
+        <v>281.0354892056668</v>
       </c>
       <c r="X10" t="n">
-        <v>967.6735489839482</v>
+        <v>53.04593830764946</v>
       </c>
       <c r="Y10" t="n">
-        <v>967.6735489839482</v>
+        <v>51.24678656800312</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2003.121004338519</v>
+        <v>141.276945881932</v>
       </c>
       <c r="C11" t="n">
-        <v>1634.158487398107</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D11" t="n">
-        <v>1634.158487398107</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E11" t="n">
-        <v>1248.370234799863</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F11" t="n">
-        <v>837.3843300102556</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G11" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H11" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I11" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J11" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362815</v>
       </c>
       <c r="K11" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816077</v>
       </c>
       <c r="L11" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M11" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N11" t="n">
         <v>1656.671415230817</v>
@@ -5066,25 +5066,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S11" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T11" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U11" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V11" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W11" t="n">
-        <v>2562.339328400155</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X11" t="n">
-        <v>2562.339328400155</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y11" t="n">
-        <v>2389.720844402641</v>
+        <v>527.8767859460538</v>
       </c>
     </row>
     <row r="12">
@@ -5100,46 +5100,46 @@
         <v>756.8511118155119</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9167021542606</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E12" t="n">
-        <v>448.6792471488051</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F12" t="n">
-        <v>302.1446891756901</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G12" t="n">
-        <v>165.4432786182523</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H12" t="n">
-        <v>71.67401812057928</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I12" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J12" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K12" t="n">
-        <v>298.3188265310614</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L12" t="n">
-        <v>593.0223835625332</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M12" t="n">
-        <v>1227.201367341572</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N12" t="n">
-        <v>1861.38035112061</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O12" t="n">
-        <v>2193.450786296772</v>
+        <v>1860.224488783102</v>
       </c>
       <c r="P12" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q12" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R12" t="n">
         <v>2562.339328400155</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1087.683159487371</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="C13" t="n">
-        <v>918.7469765594642</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="D13" t="n">
-        <v>768.6303371471284</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="E13" t="n">
-        <v>620.7172435647353</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F13" t="n">
-        <v>473.8272960668249</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G13" t="n">
         <v>305.8408313751036</v>
       </c>
       <c r="H13" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I13" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J13" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K13" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L13" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M13" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N13" t="n">
         <v>1123.088724245823</v>
@@ -5230,19 +5230,19 @@
         <v>1114.255484944676</v>
       </c>
       <c r="U13" t="n">
-        <v>1114.255484944676</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V13" t="n">
-        <v>1114.255484944676</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W13" t="n">
-        <v>1114.255484944676</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="X13" t="n">
-        <v>1114.255484944676</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="Y13" t="n">
-        <v>1114.255484944676</v>
+        <v>305.8408313751036</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1248.370234799863</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="C14" t="n">
-        <v>1248.370234799863</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="D14" t="n">
-        <v>1248.370234799863</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E14" t="n">
         <v>1248.370234799863</v>
@@ -5276,10 +5276,10 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J14" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K14" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L14" t="n">
         <v>795.7553530872915</v>
@@ -5303,25 +5303,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S14" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T14" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U14" t="n">
-        <v>1975.31341879663</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V14" t="n">
-        <v>1644.250531453059</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W14" t="n">
-        <v>1291.481876182945</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X14" t="n">
-        <v>1248.370234799863</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="Y14" t="n">
-        <v>1248.370234799863</v>
+        <v>2361.386702945269</v>
       </c>
     </row>
     <row r="15">
@@ -5331,52 +5331,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C15" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D15" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E15" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F15" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G15" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H15" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I15" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J15" t="n">
-        <v>119.9870984135514</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K15" t="n">
-        <v>304.7087196946014</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L15" t="n">
-        <v>599.4122767260732</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M15" t="n">
-        <v>1233.591260505112</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N15" t="n">
-        <v>1867.77024428415</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O15" t="n">
-        <v>2199.840679460312</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P15" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q15" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R15" t="n">
         <v>2562.339328400155</v>
@@ -5388,7 +5388,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U15" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V15" t="n">
         <v>1769.368633815395</v>
@@ -5397,7 +5397,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X15" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y15" t="n">
         <v>1099.519478116707</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1087.683159487371</v>
+        <v>53.04593830764924</v>
       </c>
       <c r="C16" t="n">
-        <v>918.7469765594642</v>
+        <v>53.04593830764924</v>
       </c>
       <c r="D16" t="n">
-        <v>768.6303371471284</v>
+        <v>53.04593830764924</v>
       </c>
       <c r="E16" t="n">
-        <v>620.7172435647353</v>
+        <v>53.04593830764924</v>
       </c>
       <c r="F16" t="n">
-        <v>473.8272960668249</v>
+        <v>53.04593830764924</v>
       </c>
       <c r="G16" t="n">
-        <v>305.8408313751036</v>
+        <v>53.04593830764924</v>
       </c>
       <c r="H16" t="n">
-        <v>157.1019332386097</v>
+        <v>53.04593830764924</v>
       </c>
       <c r="I16" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J16" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K16" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L16" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M16" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N16" t="n">
         <v>1123.088724245823</v>
@@ -5467,19 +5467,19 @@
         <v>1114.255484944676</v>
       </c>
       <c r="U16" t="n">
-        <v>1114.255484944676</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V16" t="n">
-        <v>1114.255484944676</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W16" t="n">
-        <v>1114.255484944676</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="X16" t="n">
-        <v>1114.255484944676</v>
+        <v>53.04593830764924</v>
       </c>
       <c r="Y16" t="n">
-        <v>1114.255484944676</v>
+        <v>53.04593830764924</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1176.4303492732</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="C17" t="n">
-        <v>807.4678323327887</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="D17" t="n">
-        <v>807.4678323327887</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E17" t="n">
-        <v>421.6795797345444</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F17" t="n">
-        <v>421.6795797345444</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G17" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H17" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I17" t="n">
         <v>51.24678656800311</v>
@@ -5516,10 +5516,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K17" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L17" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M17" t="n">
         <v>1220.470313923562</v>
@@ -5540,25 +5540,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S17" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T17" t="n">
-        <v>2228.894479532451</v>
+        <v>2398.73056487825</v>
       </c>
       <c r="U17" t="n">
-        <v>1975.31341879663</v>
+        <v>2398.73056487825</v>
       </c>
       <c r="V17" t="n">
-        <v>1644.250531453059</v>
+        <v>2398.73056487825</v>
       </c>
       <c r="W17" t="n">
-        <v>1291.481876182945</v>
+        <v>2398.73056487825</v>
       </c>
       <c r="X17" t="n">
-        <v>1176.4303492732</v>
+        <v>2398.73056487825</v>
       </c>
       <c r="Y17" t="n">
-        <v>1176.4303492732</v>
+        <v>2008.591232902438</v>
       </c>
     </row>
     <row r="18">
@@ -5574,46 +5574,46 @@
         <v>756.8511118155119</v>
       </c>
       <c r="D18" t="n">
-        <v>607.9167021542606</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E18" t="n">
-        <v>448.6792471488051</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F18" t="n">
-        <v>302.1446891756901</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G18" t="n">
-        <v>165.4432786182523</v>
+        <v>165.4432786182522</v>
       </c>
       <c r="H18" t="n">
-        <v>71.67401812057928</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I18" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J18" t="n">
-        <v>158.9044387371547</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K18" t="n">
-        <v>343.6260600182047</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L18" t="n">
-        <v>638.3296170496764</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M18" t="n">
-        <v>1272.508600828715</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N18" t="n">
-        <v>1659.79372942566</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O18" t="n">
-        <v>1991.864164601822</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P18" t="n">
-        <v>2239.046898434119</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R18" t="n">
         <v>2562.339328400155</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>825.137147448514</v>
+        <v>160.5158109735718</v>
       </c>
       <c r="C19" t="n">
-        <v>656.2009645206072</v>
+        <v>160.5158109735718</v>
       </c>
       <c r="D19" t="n">
-        <v>506.0843251082714</v>
+        <v>160.5158109735718</v>
       </c>
       <c r="E19" t="n">
-        <v>358.1712315258783</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F19" t="n">
-        <v>358.1712315258783</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G19" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H19" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I19" t="n">
         <v>51.24678656800311</v>
@@ -5704,19 +5704,19 @@
         <v>1114.255484944676</v>
       </c>
       <c r="U19" t="n">
-        <v>825.137147448514</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V19" t="n">
-        <v>825.137147448514</v>
+        <v>859.5709967387894</v>
       </c>
       <c r="W19" t="n">
-        <v>825.137147448514</v>
+        <v>570.1538267018288</v>
       </c>
       <c r="X19" t="n">
-        <v>825.137147448514</v>
+        <v>342.1642758038115</v>
       </c>
       <c r="Y19" t="n">
-        <v>825.137147448514</v>
+        <v>342.1642758038115</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>736.6224273402293</v>
+        <v>902.2877029482377</v>
       </c>
       <c r="C20" t="n">
-        <v>367.6599103998175</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="D20" t="n">
-        <v>367.6599103998175</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="E20" t="n">
-        <v>367.6599103998175</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="F20" t="n">
-        <v>51.24678656800311</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G20" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H20" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I20" t="n">
         <v>51.24678656800311</v>
@@ -5777,25 +5777,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S20" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T20" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U20" t="n">
-        <v>2184.059060190806</v>
+        <v>2349.724335798814</v>
       </c>
       <c r="V20" t="n">
-        <v>1852.996172847235</v>
+        <v>2018.661448455243</v>
       </c>
       <c r="W20" t="n">
-        <v>1500.227517577121</v>
+        <v>1665.892793185129</v>
       </c>
       <c r="X20" t="n">
-        <v>1126.761759316041</v>
+        <v>1292.427034924049</v>
       </c>
       <c r="Y20" t="n">
-        <v>736.6224273402293</v>
+        <v>902.2877029482377</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C21" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D21" t="n">
-        <v>607.9167021542606</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E21" t="n">
-        <v>448.6792471488051</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F21" t="n">
-        <v>302.1446891756901</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G21" t="n">
-        <v>165.4432786182523</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H21" t="n">
-        <v>71.67401812057928</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I21" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J21" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K21" t="n">
-        <v>298.3188265310613</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L21" t="n">
-        <v>593.0223835625329</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M21" t="n">
-        <v>1227.201367341571</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N21" t="n">
-        <v>1614.486495938516</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O21" t="n">
-        <v>1991.864164601822</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P21" t="n">
-        <v>2239.046898434119</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q21" t="n">
         <v>2562.339328400155</v>
@@ -5868,7 +5868,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W21" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X21" t="n">
         <v>1307.279776881661</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1296.192817233904</v>
+        <v>682.9724752679349</v>
       </c>
       <c r="C22" t="n">
-        <v>1127.256634305997</v>
+        <v>514.036292340028</v>
       </c>
       <c r="D22" t="n">
-        <v>977.1399948936614</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E22" t="n">
-        <v>977.1399948936614</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F22" t="n">
-        <v>977.1399948936614</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G22" t="n">
-        <v>977.1399948936614</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H22" t="n">
-        <v>977.1399948936614</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I22" t="n">
-        <v>977.1399948936614</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J22" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K22" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L22" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M22" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N22" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O22" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P22" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q22" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R22" t="n">
-        <v>2459.755921915737</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S22" t="n">
-        <v>2459.755921915737</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T22" t="n">
-        <v>2236.777441110473</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U22" t="n">
-        <v>2236.777441110473</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V22" t="n">
-        <v>2216.040582142652</v>
+        <v>1602.820240176683</v>
       </c>
       <c r="W22" t="n">
-        <v>1926.623412105691</v>
+        <v>1313.403070139722</v>
       </c>
       <c r="X22" t="n">
-        <v>1698.633861207674</v>
+        <v>1085.413519241705</v>
       </c>
       <c r="Y22" t="n">
-        <v>1477.841282064144</v>
+        <v>864.6209400981746</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1059.365742829028</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="C23" t="n">
-        <v>690.4032258886161</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="D23" t="n">
-        <v>690.4032258886161</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E23" t="n">
-        <v>690.4032258886161</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F23" t="n">
-        <v>690.4032258886161</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G23" t="n">
-        <v>274.698475612905</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H23" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I23" t="n">
         <v>51.24678656800311</v>
@@ -5990,10 +5990,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K23" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L23" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M23" t="n">
         <v>1220.470313923562</v>
@@ -6020,19 +6020,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U23" t="n">
-        <v>2562.339328400155</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V23" t="n">
-        <v>2562.339328400155</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W23" t="n">
-        <v>2209.570673130041</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X23" t="n">
-        <v>1836.104914868961</v>
+        <v>1264.537281697444</v>
       </c>
       <c r="Y23" t="n">
-        <v>1445.96558289315</v>
+        <v>1264.537281697444</v>
       </c>
     </row>
     <row r="24">
@@ -6042,10 +6042,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C24" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D24" t="n">
         <v>607.9167021542605</v>
@@ -6054,10 +6054,10 @@
         <v>448.679247148805</v>
       </c>
       <c r="F24" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G24" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H24" t="n">
         <v>71.67401812057901</v>
@@ -6081,13 +6081,13 @@
         <v>1683.044957866265</v>
       </c>
       <c r="O24" t="n">
-        <v>2175.502629736639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P24" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q24" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R24" t="n">
         <v>2562.339328400155</v>
@@ -6105,7 +6105,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W24" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X24" t="n">
         <v>1307.279776881661</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1087.683159487371</v>
+        <v>1844.640184885122</v>
       </c>
       <c r="C25" t="n">
-        <v>918.7469765594642</v>
+        <v>1844.640184885122</v>
       </c>
       <c r="D25" t="n">
-        <v>768.6303371471284</v>
+        <v>1694.523545472787</v>
       </c>
       <c r="E25" t="n">
-        <v>620.7172435647353</v>
+        <v>1546.610451890394</v>
       </c>
       <c r="F25" t="n">
-        <v>473.8272960668249</v>
+        <v>1399.720504392483</v>
       </c>
       <c r="G25" t="n">
-        <v>305.8408313751036</v>
+        <v>1231.734039700762</v>
       </c>
       <c r="H25" t="n">
-        <v>157.1019332386098</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="I25" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936614</v>
       </c>
       <c r="J25" t="n">
-        <v>76.71595955312199</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K25" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L25" t="n">
-        <v>523.6376499693234</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M25" t="n">
-        <v>824.2194607096587</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N25" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O25" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P25" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q25" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R25" t="n">
-        <v>1636.446120074497</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="S25" t="n">
-        <v>1636.446120074497</v>
+        <v>2263.127174075599</v>
       </c>
       <c r="T25" t="n">
-        <v>1636.446120074497</v>
+        <v>2040.148693270334</v>
       </c>
       <c r="U25" t="n">
-        <v>1636.446120074497</v>
+        <v>1844.640184885122</v>
       </c>
       <c r="V25" t="n">
-        <v>1636.446120074497</v>
+        <v>1844.640184885122</v>
       </c>
       <c r="W25" t="n">
-        <v>1636.446120074497</v>
+        <v>1844.640184885122</v>
       </c>
       <c r="X25" t="n">
-        <v>1490.124203461141</v>
+        <v>1844.640184885122</v>
       </c>
       <c r="Y25" t="n">
-        <v>1269.331624317611</v>
+        <v>1844.640184885122</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1785.600156360222</v>
+        <v>1194.179752390877</v>
       </c>
       <c r="C26" t="n">
-        <v>1416.637639419811</v>
+        <v>825.2172354504648</v>
       </c>
       <c r="D26" t="n">
-        <v>1058.37194081306</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="E26" t="n">
-        <v>672.583688214816</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="F26" t="n">
-        <v>261.5977834252084</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G26" t="n">
-        <v>261.5977834252084</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H26" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I26" t="n">
         <v>51.24678656800312</v>
@@ -6230,22 +6230,22 @@
         <v>442.5171852816081</v>
       </c>
       <c r="L26" t="n">
-        <v>795.7553530872914</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M26" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N26" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O26" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P26" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q26" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R26" t="n">
         <v>2562.339328400156</v>
@@ -6254,22 +6254,22 @@
         <v>2562.339328400156</v>
       </c>
       <c r="T26" t="n">
-        <v>2562.339328400156</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U26" t="n">
-        <v>2562.339328400156</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V26" t="n">
-        <v>2562.339328400156</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W26" t="n">
-        <v>2562.339328400156</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="X26" t="n">
-        <v>2562.339328400156</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="Y26" t="n">
-        <v>2172.199996424344</v>
+        <v>1416.181083656475</v>
       </c>
     </row>
     <row r="27">
@@ -6279,52 +6279,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C27" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D27" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E27" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F27" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G27" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H27" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I27" t="n">
         <v>51.24678656800312</v>
       </c>
       <c r="J27" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K27" t="n">
-        <v>298.3188265310613</v>
+        <v>483.0441129489473</v>
       </c>
       <c r="L27" t="n">
-        <v>593.0223835625329</v>
+        <v>1117.223096727986</v>
       </c>
       <c r="M27" t="n">
-        <v>1209.25321078144</v>
+        <v>1480.485115687206</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.432194560478</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O27" t="n">
-        <v>2175.50262973664</v>
+        <v>2199.840679460313</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.685363568937</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q27" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R27" t="n">
         <v>2562.339328400156</v>
@@ -6342,10 +6342,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W27" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X27" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y27" t="n">
         <v>1099.519478116707</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>318.2992770412186</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C28" t="n">
-        <v>318.2992770412186</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D28" t="n">
-        <v>318.2992770412186</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E28" t="n">
-        <v>303.9918807365201</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F28" t="n">
-        <v>157.1019332386098</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G28" t="n">
-        <v>157.1019332386098</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H28" t="n">
         <v>157.1019332386098</v>
@@ -6406,28 +6406,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R28" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S28" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T28" t="n">
-        <v>1310.884232784815</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U28" t="n">
-        <v>1021.765895288653</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V28" t="n">
-        <v>767.0814070827661</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W28" t="n">
-        <v>767.0814070827661</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X28" t="n">
-        <v>539.0918561847487</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="Y28" t="n">
-        <v>318.2992770412186</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1488.368453810659</v>
+        <v>1412.134398099142</v>
       </c>
       <c r="C29" t="n">
-        <v>1119.405936870247</v>
+        <v>1043.17188115873</v>
       </c>
       <c r="D29" t="n">
-        <v>761.1402382634967</v>
+        <v>1043.17188115873</v>
       </c>
       <c r="E29" t="n">
-        <v>761.1402382634967</v>
+        <v>657.3836285604862</v>
       </c>
       <c r="F29" t="n">
-        <v>350.1543334738892</v>
+        <v>246.3977237708786</v>
       </c>
       <c r="G29" t="n">
         <v>51.24678656800311</v>
@@ -6461,13 +6461,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J29" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K29" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L29" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M29" t="n">
         <v>1220.470313923562</v>
@@ -6497,16 +6497,16 @@
         <v>2562.339328400155</v>
       </c>
       <c r="V29" t="n">
-        <v>2231.276441056585</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W29" t="n">
-        <v>1878.507785786471</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X29" t="n">
-        <v>1878.507785786471</v>
+        <v>2188.873570139076</v>
       </c>
       <c r="Y29" t="n">
-        <v>1488.368453810659</v>
+        <v>1798.734238163264</v>
       </c>
     </row>
     <row r="30">
@@ -6531,34 +6531,34 @@
         <v>302.14468917569</v>
       </c>
       <c r="G30" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182522</v>
       </c>
       <c r="H30" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I30" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J30" t="n">
-        <v>158.9044387371547</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K30" t="n">
-        <v>343.6260600182047</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L30" t="n">
-        <v>638.3296170496764</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M30" t="n">
-        <v>1272.508600828715</v>
+        <v>1178.376567084329</v>
       </c>
       <c r="N30" t="n">
-        <v>1659.79372942566</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O30" t="n">
-        <v>1991.864164601822</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P30" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q30" t="n">
         <v>2562.339328400155</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>367.1463448421176</v>
+        <v>643.5623317901023</v>
       </c>
       <c r="C31" t="n">
-        <v>367.1463448421176</v>
+        <v>643.5623317901023</v>
       </c>
       <c r="D31" t="n">
-        <v>367.1463448421176</v>
+        <v>514.8620968941286</v>
       </c>
       <c r="E31" t="n">
-        <v>219.2332512597245</v>
+        <v>514.8620968941286</v>
       </c>
       <c r="F31" t="n">
-        <v>219.2332512597245</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G31" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H31" t="n">
         <v>51.24678656800311</v>
@@ -6643,28 +6643,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R31" t="n">
-        <v>1619.973569226531</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S31" t="n">
-        <v>1423.344821386392</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T31" t="n">
-        <v>1200.366340581127</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U31" t="n">
-        <v>911.248003084965</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V31" t="n">
-        <v>656.5635148790782</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W31" t="n">
-        <v>367.1463448421176</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X31" t="n">
-        <v>367.1463448421176</v>
+        <v>864.3549109336325</v>
       </c>
       <c r="Y31" t="n">
-        <v>367.1463448421176</v>
+        <v>643.5623317901023</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>420.2093035084148</v>
+        <v>1164.26325471341</v>
       </c>
       <c r="C32" t="n">
-        <v>51.24678656800311</v>
+        <v>795.3007377729979</v>
       </c>
       <c r="D32" t="n">
-        <v>51.24678656800311</v>
+        <v>437.0350391662474</v>
       </c>
       <c r="E32" t="n">
         <v>51.24678656800311</v>
@@ -6725,25 +6725,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S32" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T32" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U32" t="n">
-        <v>2184.059060190806</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V32" t="n">
-        <v>1923.182889079542</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W32" t="n">
-        <v>1570.414233809428</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="X32" t="n">
-        <v>1196.948475548348</v>
+        <v>1582.523854133141</v>
       </c>
       <c r="Y32" t="n">
-        <v>806.8091435725366</v>
+        <v>1550.863094777531</v>
       </c>
     </row>
     <row r="33">
@@ -6771,7 +6771,7 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H33" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057922</v>
       </c>
       <c r="I33" t="n">
         <v>51.24678656800311</v>
@@ -6786,19 +6786,19 @@
         <v>593.0223835625329</v>
       </c>
       <c r="M33" t="n">
-        <v>1154.038517360656</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N33" t="n">
-        <v>1541.323645957601</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O33" t="n">
-        <v>2175.502629736639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q33" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R33" t="n">
         <v>2562.339328400155</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>977.1399948936614</v>
+        <v>1931.908733528368</v>
       </c>
       <c r="C34" t="n">
-        <v>977.1399948936614</v>
+        <v>1762.972550600461</v>
       </c>
       <c r="D34" t="n">
-        <v>977.1399948936614</v>
+        <v>1612.855911188126</v>
       </c>
       <c r="E34" t="n">
-        <v>977.1399948936614</v>
+        <v>1464.942817605733</v>
       </c>
       <c r="F34" t="n">
-        <v>977.1399948936614</v>
+        <v>1318.052870107822</v>
       </c>
       <c r="G34" t="n">
-        <v>977.1399948936614</v>
+        <v>1150.066405416101</v>
       </c>
       <c r="H34" t="n">
-        <v>977.1399948936614</v>
+        <v>1001.327507279607</v>
       </c>
       <c r="I34" t="n">
         <v>977.1399948936614</v>
@@ -6880,28 +6880,28 @@
         <v>2562.339328400155</v>
       </c>
       <c r="R34" t="n">
-        <v>2459.755921915737</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S34" t="n">
-        <v>2263.127174075599</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T34" t="n">
-        <v>2040.148693270334</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U34" t="n">
-        <v>1751.030355774172</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V34" t="n">
-        <v>1496.345867568285</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W34" t="n">
-        <v>1206.928697531324</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X34" t="n">
-        <v>978.939146633307</v>
+        <v>2334.349777502138</v>
       </c>
       <c r="Y34" t="n">
-        <v>977.1399948936614</v>
+        <v>2113.557198358608</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1945.681952669558</v>
+        <v>825.2172354504648</v>
       </c>
       <c r="C35" t="n">
-        <v>1576.719435729147</v>
+        <v>825.2172354504648</v>
       </c>
       <c r="D35" t="n">
-        <v>1218.453737122396</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="E35" t="n">
-        <v>832.6654845241519</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="F35" t="n">
-        <v>421.6795797345444</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G35" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H35" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I35" t="n">
         <v>51.24678656800311</v>
@@ -6941,7 +6941,7 @@
         <v>442.5171852816081</v>
       </c>
       <c r="L35" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M35" t="n">
         <v>1220.470313923562</v>
@@ -6962,25 +6962,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S35" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T35" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U35" t="n">
-        <v>2353.59368700598</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V35" t="n">
-        <v>2353.59368700598</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W35" t="n">
-        <v>2353.59368700598</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X35" t="n">
-        <v>1980.1279287449</v>
+        <v>1215.356567426277</v>
       </c>
       <c r="Y35" t="n">
-        <v>1980.1279287449</v>
+        <v>825.2172354504648</v>
       </c>
     </row>
     <row r="36">
@@ -6990,10 +6990,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C36" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D36" t="n">
         <v>607.9167021542605</v>
@@ -7002,13 +7002,13 @@
         <v>448.679247148805</v>
       </c>
       <c r="F36" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G36" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H36" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057922</v>
       </c>
       <c r="I36" t="n">
         <v>51.24678656800311</v>
@@ -7026,13 +7026,13 @@
         <v>1081.114527508758</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.293511287796</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O36" t="n">
-        <v>2047.363946463958</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.546680296255</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q36" t="n">
         <v>2562.339328400155</v>
@@ -7053,7 +7053,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W36" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X36" t="n">
         <v>1307.279776881661</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1787.995311068926</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C37" t="n">
-        <v>1787.995311068926</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D37" t="n">
-        <v>1694.523545472787</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E37" t="n">
-        <v>1546.610451890394</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F37" t="n">
-        <v>1399.720504392483</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G37" t="n">
-        <v>1231.734039700762</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H37" t="n">
-        <v>1082.995141564268</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I37" t="n">
-        <v>977.1399948936614</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J37" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K37" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L37" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M37" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N37" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O37" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P37" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q37" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R37" t="n">
-        <v>2459.755921915737</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S37" t="n">
-        <v>2459.755921915737</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T37" t="n">
-        <v>2236.777441110473</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U37" t="n">
-        <v>2236.777441110473</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V37" t="n">
-        <v>2236.777441110473</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W37" t="n">
-        <v>2236.777441110473</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X37" t="n">
-        <v>2008.787890212456</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="Y37" t="n">
-        <v>1787.995311068926</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1164.26325471341</v>
+        <v>1255.834556068884</v>
       </c>
       <c r="C38" t="n">
-        <v>795.3007377729979</v>
+        <v>886.8720391284728</v>
       </c>
       <c r="D38" t="n">
-        <v>437.0350391662474</v>
+        <v>528.6063405217222</v>
       </c>
       <c r="E38" t="n">
-        <v>51.24678656800311</v>
+        <v>528.6063405217222</v>
       </c>
       <c r="F38" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G38" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H38" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I38" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J38" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K38" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L38" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872916</v>
       </c>
       <c r="M38" t="n">
         <v>1220.470313923562</v>
@@ -7190,34 +7190,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P38" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q38" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R38" t="n">
         <v>2562.339328400155</v>
       </c>
       <c r="S38" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T38" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U38" t="n">
-        <v>2184.059060190806</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V38" t="n">
-        <v>1890.497668244604</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W38" t="n">
-        <v>1537.729012974489</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X38" t="n">
-        <v>1164.26325471341</v>
+        <v>1255.834556068884</v>
       </c>
       <c r="Y38" t="n">
-        <v>1164.26325471341</v>
+        <v>1255.834556068884</v>
       </c>
     </row>
     <row r="39">
@@ -7227,52 +7227,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C39" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D39" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E39" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F39" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G39" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H39" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I39" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J39" t="n">
-        <v>113.5972052500114</v>
+        <v>143.6627691908465</v>
       </c>
       <c r="K39" t="n">
-        <v>298.3188265310613</v>
+        <v>590.2049751143493</v>
       </c>
       <c r="L39" t="n">
-        <v>815.114548125109</v>
+        <v>884.908532145821</v>
       </c>
       <c r="M39" t="n">
-        <v>1178.376567084329</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N39" t="n">
-        <v>1565.661695681274</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O39" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P39" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q39" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R39" t="n">
         <v>2562.339328400155</v>
@@ -7284,16 +7284,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U39" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V39" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W39" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X39" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y39" t="n">
         <v>1099.519478116707</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>518.2127024906389</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="C40" t="n">
-        <v>349.2765195627319</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="D40" t="n">
-        <v>199.1598801503962</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="E40" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="F40" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="G40" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="H40" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="I40" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="J40" t="n">
-        <v>76.71595955312199</v>
+        <v>1002.609167878779</v>
       </c>
       <c r="K40" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627705</v>
       </c>
       <c r="L40" t="n">
-        <v>523.6376499693234</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M40" t="n">
-        <v>824.2194607096587</v>
+        <v>1750.112669035316</v>
       </c>
       <c r="N40" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.98193257148</v>
       </c>
       <c r="O40" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324692</v>
       </c>
       <c r="P40" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496681</v>
       </c>
       <c r="Q40" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R40" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S40" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T40" t="n">
-        <v>1636.446120074497</v>
+        <v>2339.36084759489</v>
       </c>
       <c r="U40" t="n">
-        <v>1636.446120074497</v>
+        <v>2050.242510098728</v>
       </c>
       <c r="V40" t="n">
-        <v>1438.060467399387</v>
+        <v>1795.558021892841</v>
       </c>
       <c r="W40" t="n">
-        <v>1148.643297362426</v>
+        <v>1506.14085185588</v>
       </c>
       <c r="X40" t="n">
-        <v>920.6537464644088</v>
+        <v>1278.151300957863</v>
       </c>
       <c r="Y40" t="n">
-        <v>699.8611673208786</v>
+        <v>1057.358721814333</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1171.597178657685</v>
+        <v>1452.155307492517</v>
       </c>
       <c r="C41" t="n">
-        <v>802.6346617172737</v>
+        <v>1452.155307492517</v>
       </c>
       <c r="D41" t="n">
-        <v>802.6346617172737</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E41" t="n">
-        <v>416.8464091190295</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8464091190295</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G41" t="n">
-        <v>355.3059305704328</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H41" t="n">
         <v>51.2467865680031</v>
@@ -7445,16 +7445,16 @@
         <v>2228.89447953245</v>
       </c>
       <c r="V41" t="n">
-        <v>1897.831592188879</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W41" t="n">
-        <v>1545.062936918765</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="X41" t="n">
-        <v>1171.597178657685</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="Y41" t="n">
-        <v>1171.597178657685</v>
+        <v>1838.755147556638</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J42" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K42" t="n">
-        <v>423.1489515180662</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L42" t="n">
-        <v>717.8525085495379</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M42" t="n">
-        <v>1081.114527508758</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N42" t="n">
-        <v>1468.399656105703</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O42" t="n">
-        <v>2102.578639884742</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P42" t="n">
-        <v>2349.761373717039</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q42" t="n">
         <v>2538.001278676482</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>864.8611267254482</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="C44" t="n">
-        <v>495.8986097850365</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="D44" t="n">
-        <v>137.632911178286</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E44" t="n">
-        <v>137.632911178286</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F44" t="n">
-        <v>137.632911178286</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G44" t="n">
         <v>51.2467865680031</v>
@@ -7658,40 +7658,40 @@
         <v>1220.470313923562</v>
       </c>
       <c r="N44" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O44" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P44" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q44" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R44" t="n">
         <v>2562.339328400155</v>
       </c>
       <c r="S44" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T44" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U44" t="n">
-        <v>2308.758267664335</v>
+        <v>2028.142371934335</v>
       </c>
       <c r="V44" t="n">
-        <v>1977.695380320764</v>
+        <v>2028.142371934335</v>
       </c>
       <c r="W44" t="n">
-        <v>1624.92672505065</v>
+        <v>2028.142371934335</v>
       </c>
       <c r="X44" t="n">
-        <v>1251.46096678957</v>
+        <v>1654.676613673255</v>
       </c>
       <c r="Y44" t="n">
-        <v>1251.46096678957</v>
+        <v>1264.537281697444</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C45" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D45" t="n">
-        <v>607.9167021542602</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E45" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F45" t="n">
-        <v>302.1446891756897</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G45" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H45" t="n">
         <v>71.67401812057898</v>
@@ -7731,16 +7731,16 @@
         <v>298.3188265310614</v>
       </c>
       <c r="L45" t="n">
-        <v>801.944955774447</v>
+        <v>815.1145481251083</v>
       </c>
       <c r="M45" t="n">
-        <v>1165.206974733667</v>
+        <v>1178.376567084328</v>
       </c>
       <c r="N45" t="n">
-        <v>1552.492103330612</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O45" t="n">
-        <v>1884.562538506774</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P45" t="n">
         <v>2447.023413292609</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>370.2996089082458</v>
+        <v>1642.491563491407</v>
       </c>
       <c r="C46" t="n">
-        <v>201.3634259803388</v>
+        <v>1473.5553805635</v>
       </c>
       <c r="D46" t="n">
-        <v>51.2467865680031</v>
+        <v>1323.438741151165</v>
       </c>
       <c r="E46" t="n">
-        <v>51.2467865680031</v>
+        <v>1231.734039700761</v>
       </c>
       <c r="F46" t="n">
-        <v>51.2467865680031</v>
+        <v>1231.734039700761</v>
       </c>
       <c r="G46" t="n">
-        <v>51.2467865680031</v>
+        <v>1231.734039700761</v>
       </c>
       <c r="H46" t="n">
-        <v>51.2467865680031</v>
+        <v>1082.995141564267</v>
       </c>
       <c r="I46" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="J46" t="n">
-        <v>76.71595955312199</v>
+        <v>1002.609167878779</v>
       </c>
       <c r="K46" t="n">
-        <v>248.4064713020476</v>
+        <v>1174.299679627705</v>
       </c>
       <c r="L46" t="n">
-        <v>523.6376499693235</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M46" t="n">
-        <v>824.2194607096588</v>
+        <v>1750.112669035316</v>
       </c>
       <c r="N46" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.98193257148</v>
       </c>
       <c r="O46" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324692</v>
       </c>
       <c r="P46" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496681</v>
       </c>
       <c r="Q46" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R46" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S46" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T46" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U46" t="n">
-        <v>1544.831862022881</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V46" t="n">
-        <v>1290.147373816994</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W46" t="n">
-        <v>1000.730203780033</v>
+        <v>2272.922158363194</v>
       </c>
       <c r="X46" t="n">
-        <v>772.7406528820156</v>
+        <v>2044.932607465177</v>
       </c>
       <c r="Y46" t="n">
-        <v>551.9480737384855</v>
+        <v>1824.140028321647</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>122.655049408141</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>132.5770954899867</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>220.4351050523097</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>202.7801820649297</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>199.8923089233795</v>
       </c>
       <c r="O2" t="n">
-        <v>5.353441106472687</v>
+        <v>114.1824872978581</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>221.7704975940831</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>148.0123370335204</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,28 +8055,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>92.06043337546471</v>
       </c>
       <c r="K3" t="n">
-        <v>100.3473555435247</v>
+        <v>78.40167640984558</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>58.63028368958338</v>
       </c>
       <c r="M3" t="n">
-        <v>90.38351853405004</v>
+        <v>48.86638356071948</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>125.0744351169686</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>148.2523564794942</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>156.9198264896976</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.326505637754707</v>
+        <v>186.2303827981379</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8225,7 +8225,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>58.78819318392613</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -8234,7 +8234,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>60.49244923701495</v>
+        <v>1.704256053088947</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>54.42200251657025</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>72.85507260968015</v>
       </c>
       <c r="Q6" t="n">
-        <v>127.2770751262504</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8474,7 +8474,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>60.51967546761153</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>2.051220519418266</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8775,22 +8775,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>273.6534998179983</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>60.3579772739767</v>
       </c>
       <c r="P12" t="n">
-        <v>6.45443753892954</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,22 +9003,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>6.454437538929341</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M15" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>162.0073097921338</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,16 +9240,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>45.76488231024582</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9261,10 +9261,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>114.3555089013349</v>
       </c>
       <c r="R18" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9486,13 +9486,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="O21" t="n">
-        <v>45.76488231024615</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9729,7 +9729,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>162.0073097921338</v>
+        <v>186.5911984019042</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,19 +9951,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>60.50016306149615</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M27" t="n">
-        <v>255.5240487471581</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>249.3877325071651</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>45.76488231024582</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10197,19 +10197,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>273.6534998179984</v>
+        <v>224.3355197601779</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>20.9377812015499</v>
@@ -10434,10 +10434,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>199.751631150407</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>224.3355197601777</v>
       </c>
       <c r="O33" t="n">
         <v>305.1601501039158</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10674,16 +10674,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>193.3273467878355</v>
       </c>
       <c r="Q36" t="n">
-        <v>154.0169020165191</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>20.9377812015499</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>30.36925650589403</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>224.3355197601778</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,16 +10914,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,16 +11148,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>30.36925650589404</v>
       </c>
       <c r="O42" t="n">
-        <v>305.1601501039157</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>73.6605958099972</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11379,7 +11379,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>211.0329012241554</v>
+        <v>224.335519760177</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>305.1601501039157</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>289.4978399079985</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>283.1506214247789</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22556,16 +22556,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>380.7555119719179</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>199.7972240028587</v>
+        <v>414.6147644360789</v>
       </c>
       <c r="H2" t="n">
-        <v>105.8847723647877</v>
+        <v>332.4290978198829</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>183.9528074400922</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,16 +22592,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>106.6532290138863</v>
       </c>
       <c r="S2" t="n">
-        <v>164.4264362802048</v>
+        <v>193.3428830472524</v>
       </c>
       <c r="T2" t="n">
-        <v>0.980791499308566</v>
+        <v>126.8482456550807</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1890981886052</v>
+        <v>158.0546133060299</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22626,7 +22626,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>119.2453445789494</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22638,13 +22638,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.2964651701442</v>
+        <v>136.9754191143552</v>
       </c>
       <c r="H3" t="n">
-        <v>102.1231263034603</v>
+        <v>108.6803920278141</v>
       </c>
       <c r="I3" t="n">
-        <v>53.34681642347065</v>
+        <v>76.7230816079289</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,22 +22671,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>35.14876391646716</v>
+        <v>77.30346582107749</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>164.8459112928615</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>116.5587648972855</v>
       </c>
       <c r="U3" t="n">
-        <v>12.32391755954586</v>
+        <v>132.6811633485943</v>
       </c>
       <c r="V3" t="n">
-        <v>19.25200762754017</v>
+        <v>139.5645853939431</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>158.4589814054375</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22705,7 +22705,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>74.0108193431457</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -22717,16 +22717,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.1131661402279</v>
+        <v>74.44637656403114</v>
       </c>
       <c r="H4" t="n">
-        <v>14.82652923441591</v>
+        <v>77.36115837858644</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>146.1700000469702</v>
       </c>
       <c r="J4" t="n">
-        <v>31.29778558775325</v>
+        <v>71.54108666322651</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,19 +22747,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>12.65715640511115</v>
+        <v>60.32091443599508</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>163.417566480584</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>218.6385235673495</v>
       </c>
       <c r="T4" t="n">
-        <v>10.64635342850104</v>
+        <v>226.6270213527871</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2711486354965</v>
+        <v>286.3021965725484</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22771,7 +22771,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>125.3486515966127</v>
       </c>
     </row>
     <row r="5">
@@ -22784,13 +22784,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>295.2465780243033</v>
       </c>
       <c r="D5" t="n">
-        <v>99.59766369738071</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>126.8449921489595</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22832,7 +22832,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.651863114966</v>
@@ -22841,16 +22841,16 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>103.0730575952904</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>94.15559079411076</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>114.6457227551668</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>131.1525607327513</v>
       </c>
     </row>
     <row r="6">
@@ -22860,16 +22860,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -22911,13 +22911,13 @@
         <v>20.90078060183509</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>56.14893884513164</v>
       </c>
       <c r="T6" t="n">
-        <v>5.402411670683648</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22939,7 +22939,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>159.1098174072172</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -22951,16 +22951,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>89.75101763856597</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22999,13 +22999,13 @@
         <v>31.17527673479475</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -23018,28 +23018,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>149.6511845669353</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>143.1621657402053</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>149.1202946442039</v>
+        <v>339.273451284843</v>
       </c>
       <c r="H8" t="n">
-        <v>314.193632629268</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>115.3066195468971</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,25 +23069,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>152.7676931992223</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1481678782825</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23097,28 +23097,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,16 +23145,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>98.38491328483624</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -23176,13 +23176,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -23191,16 +23191,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23224,28 +23224,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>41.19445157180833</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2586305026775</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>216.8034931298449</v>
       </c>
     </row>
     <row r="11">
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>276.1430340502179</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>215.3456394985143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.5253779792052</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>24.55728874774263</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23495,13 +23495,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>327.0505757092175</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>187.2948394557165</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.5253779792052</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>103.0154349816509</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,16 +23707,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23729,28 +23729,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,25 +23780,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>44.68550909354775</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>255.8300890378215</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>38.25762848505616</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>114.4995038955372</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,16 +23944,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23978,16 +23978,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>93.62705314821523</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I20" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T20" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>40.55640745313411</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24130,16 +24130,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>147.2515091551288</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S22" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U22" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V22" t="n">
-        <v>231.608152945685</v>
+        <v>218.8480222249915</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24206,7 +24206,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24215,16 +24215,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>145.511293080423</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24260,19 +24260,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U23" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>12.94555175879452</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2271541212006</v>
+        <v>92.67373081984093</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24427,10 +24427,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>80.85095794181399</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>162.9525237105378</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24449,19 +24449,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>158.4809783462426</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,22 +24494,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T26" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>132.2696403049177</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S28" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>80.85095794181399</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24677,22 +24677,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>115.6292313361268</v>
+        <v>218.3482749421073</v>
       </c>
       <c r="H29" t="n">
         <v>301.0185525624054</v>
@@ -24737,13 +24737,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>21.20224047119838</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>104.7965952039006</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>85.24974708008664</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24920,10 +24920,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24965,7 +24965,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T32" t="n">
         <v>206.6581849802338</v>
@@ -24974,7 +24974,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>69.48484906998419</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24983,7 +24983,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>354.8937868939999</v>
       </c>
     </row>
     <row r="33">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>104.7965952039006</v>
+        <v>80.8509579418144</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25120,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>216.8034931298457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25151,28 +25151,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>348.6323253488922</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,25 +25202,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>294.3670450093669</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25309,13 +25309,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>56.07842507803498</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S37" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U37" t="n">
         <v>286.2271541212006</v>
@@ -25375,7 +25375,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>80.85095794181399</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25397,10 +25397,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>411.547702772954</v>
@@ -25409,7 +25409,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I38" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,7 +25439,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T38" t="n">
         <v>206.6581849802338</v>
@@ -25448,13 +25448,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>37.12648044339483</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>4.329853386521393</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25546,16 +25546,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>100.4154405304713</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25600,13 +25600,13 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T40" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>55.73584717546831</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25625,25 +25625,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>168.137724492342</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>350.6226290098433</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I41" t="n">
         <v>65.70991267247047</v>
@@ -25685,16 +25685,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25865,19 +25865,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>326.0254394087739</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>301.0185525624054</v>
@@ -25913,25 +25913,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>52.3006636063283</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26029,7 +26029,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>55.64630821066928</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H46" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,10 +26077,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U46" t="n">
-        <v>195.5290386500999</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490792.8279397446</v>
+        <v>399474.1805882681</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>528167.0788500558</v>
+        <v>791064.888196562</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>791064.8881965616</v>
+        <v>791064.8881965617</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>791064.8881965618</v>
+        <v>791064.8881965617</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>791064.8881965617</v>
+        <v>791064.8881965618</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>791064.8881965616</v>
+        <v>791064.8881965618</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>791064.888196562</v>
+        <v>791064.8881965617</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>791064.8881965618</v>
+        <v>791064.8881965617</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>176433.8796467769</v>
+        <v>133873.6373116751</v>
       </c>
       <c r="C2" t="n">
-        <v>191014.2600650198</v>
+        <v>191014.2600650197</v>
       </c>
       <c r="D2" t="n">
-        <v>193768.2521372567</v>
+        <v>290673.0489695932</v>
       </c>
       <c r="E2" t="n">
-        <v>290673.048969593</v>
+        <v>290673.0489695932</v>
       </c>
       <c r="F2" t="n">
-        <v>290673.0489695931</v>
+        <v>290673.0489695933</v>
       </c>
       <c r="G2" t="n">
-        <v>290673.0489695931</v>
+        <v>290673.0489695932</v>
       </c>
       <c r="H2" t="n">
         <v>290673.0489695932</v>
@@ -26338,22 +26338,22 @@
         <v>290673.0489695931</v>
       </c>
       <c r="K2" t="n">
-        <v>290673.0489695932</v>
+        <v>290673.0489695931</v>
       </c>
       <c r="L2" t="n">
         <v>290673.0489695932</v>
       </c>
       <c r="M2" t="n">
-        <v>290673.0489695931</v>
+        <v>290673.0489695932</v>
       </c>
       <c r="N2" t="n">
-        <v>290673.0489695934</v>
+        <v>290673.0489695932</v>
       </c>
       <c r="O2" t="n">
         <v>290673.0489695931</v>
       </c>
       <c r="P2" t="n">
-        <v>290673.0489695933</v>
+        <v>290673.0489695932</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540639.6401442294</v>
+        <v>196151.8045201598</v>
       </c>
       <c r="C3" t="n">
-        <v>110570.3295011675</v>
+        <v>436874.9845507396</v>
       </c>
       <c r="D3" t="n">
-        <v>20304.34116800276</v>
+        <v>411432.7049739465</v>
       </c>
       <c r="E3" t="n">
-        <v>369622.271430143</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>55873.70454042398</v>
+        <v>24394.6404433114</v>
       </c>
       <c r="K3" t="n">
-        <v>10690.2427309759</v>
+        <v>41654.85024555949</v>
       </c>
       <c r="L3" t="n">
-        <v>2183.796219474716</v>
+        <v>97566.44235704449</v>
       </c>
       <c r="M3" t="n">
-        <v>93917.74874676275</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18322.87040944203</v>
+        <v>40210.00386027624</v>
       </c>
       <c r="C4" t="n">
-        <v>10292.35151037067</v>
+        <v>9775.658634767538</v>
       </c>
       <c r="D4" t="n">
-        <v>8716.434470907967</v>
+        <v>11359.04569987401</v>
       </c>
       <c r="E4" t="n">
-        <v>11945.10908737288</v>
+        <v>11359.04569987402</v>
       </c>
       <c r="F4" t="n">
-        <v>11945.10908737288</v>
+        <v>11359.04569987402</v>
       </c>
       <c r="G4" t="n">
-        <v>11945.10908737289</v>
+        <v>11359.04569987402</v>
       </c>
       <c r="H4" t="n">
-        <v>11945.10908737289</v>
+        <v>11359.04569987401</v>
       </c>
       <c r="I4" t="n">
-        <v>11945.10908737289</v>
+        <v>11359.04569987401</v>
       </c>
       <c r="J4" t="n">
-        <v>11945.10908737289</v>
+        <v>11359.04569987402</v>
       </c>
       <c r="K4" t="n">
-        <v>11945.10908737289</v>
+        <v>11359.04569987402</v>
       </c>
       <c r="L4" t="n">
-        <v>11945.10908737289</v>
+        <v>11359.04569987402</v>
       </c>
       <c r="M4" t="n">
-        <v>11945.10908737288</v>
+        <v>11359.04569987402</v>
       </c>
       <c r="N4" t="n">
-        <v>11945.10908737289</v>
+        <v>11359.045699874</v>
       </c>
       <c r="O4" t="n">
-        <v>11945.10908737288</v>
+        <v>11359.04569987401</v>
       </c>
       <c r="P4" t="n">
-        <v>11945.10908737288</v>
+        <v>11359.04569987401</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26467,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>57223.31743132474</v>
+        <v>43027.05492118526</v>
       </c>
       <c r="C5" t="n">
         <v>62074.5699651066</v>
       </c>
       <c r="D5" t="n">
-        <v>63047.80320426619</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
-        <v>59310.17243984472</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="F5" t="n">
-        <v>59310.17243984472</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="G5" t="n">
         <v>59310.17243984471</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-439751.9483382193</v>
+        <v>-145515.2259899462</v>
       </c>
       <c r="C6" t="n">
-        <v>8077.009088375038</v>
+        <v>-317710.9530855941</v>
       </c>
       <c r="D6" t="n">
-        <v>101699.6732940798</v>
+        <v>-225056.474144072</v>
       </c>
       <c r="E6" t="n">
-        <v>-150204.5039877677</v>
+        <v>220003.8308298747</v>
       </c>
       <c r="F6" t="n">
-        <v>219417.7674423755</v>
+        <v>220003.8308298746</v>
       </c>
       <c r="G6" t="n">
-        <v>219417.7674423755</v>
+        <v>220003.8308298745</v>
       </c>
       <c r="H6" t="n">
-        <v>219417.7674423757</v>
+        <v>220003.8308298745</v>
       </c>
       <c r="I6" t="n">
-        <v>219417.7674423756</v>
+        <v>220003.8308298745</v>
       </c>
       <c r="J6" t="n">
-        <v>163544.0629019515</v>
+        <v>195609.190386563</v>
       </c>
       <c r="K6" t="n">
-        <v>208727.5247113997</v>
+        <v>178348.9805843149</v>
       </c>
       <c r="L6" t="n">
-        <v>217233.971222901</v>
+        <v>122437.38847283</v>
       </c>
       <c r="M6" t="n">
-        <v>125500.0186956128</v>
+        <v>220003.8308298745</v>
       </c>
       <c r="N6" t="n">
-        <v>219417.7674423758</v>
+        <v>220003.8308298746</v>
       </c>
       <c r="O6" t="n">
-        <v>219417.7674423755</v>
+        <v>220003.8308298744</v>
       </c>
       <c r="P6" t="n">
-        <v>219417.7674423757</v>
+        <v>220003.8308298746</v>
       </c>
     </row>
   </sheetData>
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>486.7873301098227</v>
+        <v>171.1333034152272</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>614.0550137694783</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="F3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="G3" t="n">
         <v>934.0648921175392</v>
@@ -26771,7 +26771,7 @@
         <v>934.0648921175392</v>
       </c>
       <c r="N3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="O3" t="n">
         <v>934.0648921175393</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213.5485795218851</v>
+        <v>93.23600175548214</v>
       </c>
       <c r="C4" t="n">
         <v>255.0853779233022</v>
       </c>
       <c r="D4" t="n">
-        <v>263.7138800015061</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
         <v>640.5848321000389</v>
@@ -26823,7 +26823,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="N4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O4" t="n">
         <v>640.5848321000387</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>486.7873301098227</v>
+        <v>171.1333034152272</v>
       </c>
       <c r="C3" t="n">
-        <v>106.6887702282423</v>
+        <v>422.3427969228378</v>
       </c>
       <c r="D3" t="n">
-        <v>20.57891343141318</v>
+        <v>340.5887917794744</v>
       </c>
       <c r="E3" t="n">
-        <v>320.0098783480611</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213.5485795218851</v>
+        <v>93.23600175548214</v>
       </c>
       <c r="C4" t="n">
-        <v>41.53679840141714</v>
+        <v>161.8493761678201</v>
       </c>
       <c r="D4" t="n">
-        <v>8.628502078203894</v>
+        <v>385.4994541767367</v>
       </c>
       <c r="E4" t="n">
-        <v>376.8709520985327</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>213.5485795218846</v>
+        <v>93.23600175548225</v>
       </c>
       <c r="K4" t="n">
-        <v>41.53679840141702</v>
+        <v>161.84937616782</v>
       </c>
       <c r="L4" t="n">
-        <v>8.628502078203951</v>
+        <v>385.4994541767368</v>
       </c>
       <c r="M4" t="n">
-        <v>376.8709520985327</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>213.5485795218851</v>
+        <v>93.23600175548214</v>
       </c>
       <c r="K4" t="n">
-        <v>41.53679840141714</v>
+        <v>161.8493761678201</v>
       </c>
       <c r="L4" t="n">
-        <v>8.628502078203894</v>
+        <v>385.4994541767367</v>
       </c>
       <c r="M4" t="n">
-        <v>376.8709520985327</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.956933990391246</v>
+        <v>0.6879730790561893</v>
       </c>
       <c r="H2" t="n">
-        <v>20.04145022909435</v>
+        <v>7.045704295884201</v>
       </c>
       <c r="I2" t="n">
-        <v>75.44469766455857</v>
+        <v>26.52308213031377</v>
       </c>
       <c r="J2" t="n">
-        <v>166.0923262669691</v>
+        <v>58.3908551185453</v>
       </c>
       <c r="K2" t="n">
-        <v>248.9293420802306</v>
+        <v>87.51275555499382</v>
       </c>
       <c r="L2" t="n">
-        <v>308.8188606886667</v>
+        <v>108.5673116731597</v>
       </c>
       <c r="M2" t="n">
-        <v>343.6204855402871</v>
+        <v>120.8020529178252</v>
       </c>
       <c r="N2" t="n">
-        <v>349.1806242404862</v>
+        <v>122.7567564286936</v>
       </c>
       <c r="O2" t="n">
-        <v>329.7213618735332</v>
+        <v>115.9157241238286</v>
       </c>
       <c r="P2" t="n">
-        <v>281.4095539857493</v>
+        <v>98.93138873462892</v>
       </c>
       <c r="Q2" t="n">
-        <v>211.3268554548628</v>
+        <v>74.29335284092912</v>
       </c>
       <c r="R2" t="n">
-        <v>122.9272547739142</v>
+        <v>43.21588892726339</v>
       </c>
       <c r="S2" t="n">
-        <v>44.59363330604056</v>
+        <v>15.67718653899293</v>
       </c>
       <c r="T2" t="n">
-        <v>8.566478542937682</v>
+        <v>3.01160215356847</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1565547192312996</v>
+        <v>0.05503784632449514</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.047051993066411</v>
+        <v>0.3680980488553944</v>
       </c>
       <c r="H3" t="n">
-        <v>10.11231793303613</v>
+        <v>3.555052208682362</v>
       </c>
       <c r="I3" t="n">
-        <v>36.04981642794443</v>
+        <v>12.67355124348617</v>
       </c>
       <c r="J3" t="n">
-        <v>98.92345167826126</v>
+        <v>34.77719329120198</v>
       </c>
       <c r="K3" t="n">
-        <v>169.0759352137108</v>
+        <v>59.43976256451341</v>
       </c>
       <c r="L3" t="n">
-        <v>227.343460161196</v>
+        <v>79.9240960902908</v>
       </c>
       <c r="M3" t="n">
-        <v>265.2990949098534</v>
+        <v>93.26765036129883</v>
       </c>
       <c r="N3" t="n">
-        <v>272.3207725300225</v>
+        <v>95.73616753980717</v>
       </c>
       <c r="O3" t="n">
-        <v>249.1203046836562</v>
+        <v>87.57988972043238</v>
       </c>
       <c r="P3" t="n">
-        <v>199.9410073426553</v>
+        <v>70.29058268011475</v>
       </c>
       <c r="Q3" t="n">
-        <v>133.6552684482668</v>
+        <v>46.98739304336579</v>
       </c>
       <c r="R3" t="n">
-        <v>65.00907023617597</v>
+        <v>22.85436833156564</v>
       </c>
       <c r="S3" t="n">
-        <v>19.44853153787828</v>
+        <v>6.837259810976291</v>
       </c>
       <c r="T3" t="n">
-        <v>4.220354305386103</v>
+        <v>1.483693451307488</v>
       </c>
       <c r="U3" t="n">
-        <v>0.06888499954384288</v>
+        <v>0.02421697689838122</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8778132182308278</v>
+        <v>0.3086010389454917</v>
       </c>
       <c r="H4" t="n">
-        <v>7.804557522088638</v>
+        <v>2.743743782624465</v>
       </c>
       <c r="I4" t="n">
-        <v>26.39823750825072</v>
+        <v>9.280474880288063</v>
       </c>
       <c r="J4" t="n">
-        <v>62.06139452891952</v>
+        <v>21.81809345344626</v>
       </c>
       <c r="K4" t="n">
-        <v>101.9859357180907</v>
+        <v>35.8538297974853</v>
       </c>
       <c r="L4" t="n">
-        <v>130.5068851904269</v>
+        <v>45.88055809922339</v>
       </c>
       <c r="M4" t="n">
-        <v>137.6012120177651</v>
+        <v>48.37461558670103</v>
       </c>
       <c r="N4" t="n">
-        <v>134.329362749814</v>
+        <v>47.2243753506315</v>
       </c>
       <c r="O4" t="n">
-        <v>124.0749083368447</v>
+        <v>43.61935412295006</v>
       </c>
       <c r="P4" t="n">
-        <v>106.1675186849357</v>
+        <v>37.323892928462</v>
       </c>
       <c r="Q4" t="n">
-        <v>73.50488684658323</v>
+        <v>25.84112881569931</v>
       </c>
       <c r="R4" t="n">
-        <v>39.4696743397243</v>
+        <v>13.87582489658547</v>
       </c>
       <c r="S4" t="n">
-        <v>15.2978903577136</v>
+        <v>5.378074469622795</v>
       </c>
       <c r="T4" t="n">
-        <v>3.750656477895354</v>
+        <v>1.318568075494373</v>
       </c>
       <c r="U4" t="n">
-        <v>0.04788072099440884</v>
+        <v>0.01683278394248139</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.468562869425036</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>25.28116948649916</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>95.1692700235088</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>209.5161878388634</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>314.0104541016252</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>389.5577350167918</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>433.4580399459292</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>440.4718441986831</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>415.9250721658379</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>354.9824263269073</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>266.5770185656231</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>155.0658623465206</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>56.25237638702307</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>10.8061339609081</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.32079757678718</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>12.75612396528671</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>45.47482884990948</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>124.7864061472484</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>213.2798437919895</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>286.7810703458304</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>334.6599825043656</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>343.517436429399</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>314.2513427542725</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>252.2144074480712</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>168.5986520825179</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>82.00530919736545</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>24.53323569163905</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>5.323741109944814</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.107312319912174</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>9.845013171582789</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>33.29990140244975</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
-        <v>78.28698101779068</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>128.6495586225234</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
-        <v>164.6271425440336</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>173.576239384051</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>169.4489843734694</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>156.513563181768</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>133.9243918555596</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>92.72230707919121</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>49.78878849350555</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>19.29743379337851</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>4.731243548715651</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H11" t="n">
         <v>38.45624955336179</v>
@@ -31765,16 +31765,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L11" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M11" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N11" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O11" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P11" t="n">
         <v>539.9786897190645</v>
@@ -31786,7 +31786,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S11" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T11" t="n">
         <v>16.4376645838976</v>
@@ -31835,7 +31835,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I12" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J12" t="n">
         <v>189.8178475575841</v>
@@ -31847,16 +31847,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M12" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N12" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O12" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P12" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q12" t="n">
         <v>256.4624964168761</v>
@@ -31914,7 +31914,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I13" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J13" t="n">
         <v>119.0856174753787</v>
@@ -31941,7 +31941,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R13" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S13" t="n">
         <v>29.35413767523479</v>
@@ -31950,7 +31950,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H14" t="n">
         <v>38.45624955336179</v>
@@ -32002,16 +32002,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L14" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M14" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N14" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O14" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P14" t="n">
         <v>539.9786897190645</v>
@@ -32023,7 +32023,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S14" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T14" t="n">
         <v>16.4376645838976</v>
@@ -32072,7 +32072,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I15" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J15" t="n">
         <v>189.8178475575841</v>
@@ -32084,16 +32084,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M15" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N15" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O15" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P15" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q15" t="n">
         <v>256.4624964168761</v>
@@ -32151,7 +32151,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I16" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J16" t="n">
         <v>119.0856174753787</v>
@@ -32178,7 +32178,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R16" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S16" t="n">
         <v>29.35413767523479</v>
@@ -32187,7 +32187,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32254,7 +32254,7 @@
         <v>539.9786897190645</v>
       </c>
       <c r="Q17" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R17" t="n">
         <v>235.8772011235312</v>
@@ -33679,7 +33679,7 @@
         <v>405.5015080147052</v>
       </c>
       <c r="R35" t="n">
-        <v>235.8772011235313</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S35" t="n">
         <v>85.56785418745098</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H38" t="n">
         <v>38.45624955336179</v>
@@ -33898,16 +33898,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L38" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M38" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N38" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O38" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P38" t="n">
         <v>539.9786897190645</v>
@@ -33919,7 +33919,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S38" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T38" t="n">
         <v>16.4376645838976</v>
@@ -33968,7 +33968,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I39" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J39" t="n">
         <v>189.8178475575841</v>
@@ -33980,16 +33980,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M39" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N39" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O39" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P39" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q39" t="n">
         <v>256.4624964168761</v>
@@ -34047,7 +34047,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I40" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J40" t="n">
         <v>119.0856174753787</v>
@@ -34074,7 +34074,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R40" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S40" t="n">
         <v>29.35413767523479</v>
@@ -34083,7 +34083,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U40" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34378,7 +34378,7 @@
         <v>659.3512441730005</v>
       </c>
       <c r="N44" t="n">
-        <v>670.0202366342214</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O44" t="n">
         <v>632.6811099166596</v>
@@ -34390,7 +34390,7 @@
         <v>405.5015080147052</v>
       </c>
       <c r="R44" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235304</v>
       </c>
       <c r="S44" t="n">
         <v>85.56785418745099</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>154.1430369123566</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>28.83949103525006</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>73.05244571867951</v>
+        <v>93.23600175548214</v>
       </c>
       <c r="M2" t="n">
-        <v>113.2742523130143</v>
+        <v>93.23600175548214</v>
       </c>
       <c r="N2" t="n">
-        <v>119.7675606438953</v>
+        <v>93.23600175548214</v>
       </c>
       <c r="O2" t="n">
-        <v>104.9765915583192</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>50.17655823047977</v>
+        <v>89.46889057344248</v>
       </c>
       <c r="Q2" t="n">
-        <v>201.336156240318</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>98.1768603520034</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>131.5818517828765</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>88.78908038132184</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>213.5485795218851</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>140.9790604466891</v>
+        <v>89.46889057344248</v>
       </c>
       <c r="O3" t="n">
-        <v>106.5240602392117</v>
+        <v>93.23600175548214</v>
       </c>
       <c r="P3" t="n">
-        <v>65.96659992832508</v>
+        <v>93.23600175548214</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>93.23600175548214</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>79.71644389220785</v>
+        <v>13.58433797160244</v>
       </c>
       <c r="L4" t="n">
-        <v>158.0969104507431</v>
+        <v>73.47058335953952</v>
       </c>
       <c r="M4" t="n">
-        <v>177.1850889796057</v>
+        <v>87.95849254854161</v>
       </c>
       <c r="N4" t="n">
-        <v>178.4615351290425</v>
+        <v>91.3565477298601</v>
       </c>
       <c r="O4" t="n">
-        <v>148.6600362508844</v>
+        <v>68.20448203698973</v>
       </c>
       <c r="P4" t="n">
-        <v>103.4460779498292</v>
+        <v>34.60245219335549</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34945,7 +34945,7 @@
         <v>188.5852654802098</v>
       </c>
       <c r="N5" t="n">
-        <v>196.2971847393761</v>
+        <v>255.0853779233022</v>
       </c>
       <c r="O5" t="n">
         <v>171.8879043605652</v>
@@ -34954,7 +34954,7 @@
         <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
-        <v>95.82994420832314</v>
+        <v>37.04175102439714</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35024,16 +35024,16 @@
         <v>181.3104407622271</v>
       </c>
       <c r="N6" t="n">
-        <v>200.663375406732</v>
+        <v>255.0853779233022</v>
       </c>
       <c r="O6" t="n">
         <v>161.1235481502633</v>
       </c>
       <c r="P6" t="n">
-        <v>109.7875025528271</v>
+        <v>182.6425751625073</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.2436824009746</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>28.47028331217709</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>93.92060305664467</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>153.7913200468045</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>203.1118067186565</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>211.0587806020922</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>185.8268607441512</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>123.7494305716377</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>44.27132869117358</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>75.43840481763047</v>
+        <v>379.9148430313199</v>
       </c>
       <c r="L9" t="n">
-        <v>148.2266905659562</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>192.5259485823473</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>212.1757243460657</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>171.6550983098281</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>215.5616691250133</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>28.61687799649638</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
-        <v>106.3800667966406</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>192.2171678043497</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>213.1601163458916</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>213.581156752698</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>181.0986910958077</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>131.2029511204531</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.560263827496826</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,19 +35410,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K11" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L11" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M11" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N11" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O11" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P11" t="n">
         <v>308.745693963795</v>
@@ -35431,7 +35431,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R11" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K12" t="n">
         <v>186.5874962434848</v>
@@ -35495,22 +35495,22 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M12" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N12" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O12" t="n">
-        <v>335.4246819961231</v>
+        <v>395.7826592700997</v>
       </c>
       <c r="P12" t="n">
-        <v>256.1339666624619</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q12" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K13" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L13" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M13" t="n">
         <v>303.6179906468033</v>
@@ -35580,13 +35580,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O13" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P13" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q13" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,19 +35647,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K14" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L14" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M14" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N14" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O14" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P14" t="n">
         <v>308.745693963795</v>
@@ -35668,7 +35668,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R14" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>69.43465842984679</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K15" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L15" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M15" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N15" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O15" t="n">
-        <v>335.4246819961231</v>
+        <v>497.4319917882568</v>
       </c>
       <c r="P15" t="n">
         <v>249.6795291235323</v>
@@ -35747,7 +35747,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K16" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L16" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M16" t="n">
         <v>303.6179906468033</v>
@@ -35817,13 +35817,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O16" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P16" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q16" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>308.745693963795</v>
       </c>
       <c r="Q17" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R17" t="n">
         <v>20.29166330939904</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>108.7451032011632</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K18" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L18" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M18" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N18" t="n">
         <v>391.1970995928739</v>
@@ -35981,10 +35981,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q18" t="n">
-        <v>326.5580100667037</v>
+        <v>230.8362312321895</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K21" t="n">
         <v>186.5874962434848</v>
@@ -36206,13 +36206,13 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M21" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N21" t="n">
-        <v>391.1970995928739</v>
+        <v>584.5244463807089</v>
       </c>
       <c r="O21" t="n">
-        <v>381.1895643063692</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P21" t="n">
         <v>249.6795291235323</v>
@@ -36379,7 +36379,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R23" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939915</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36449,7 +36449,7 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O24" t="n">
-        <v>497.4319917882568</v>
+        <v>522.0158803980272</v>
       </c>
       <c r="P24" t="n">
         <v>249.6795291235323</v>
@@ -36458,7 +36458,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R24" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>257.5646495407337</v>
       </c>
       <c r="L26" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067513</v>
       </c>
       <c r="M26" t="n">
         <v>429.0050109457277</v>
@@ -36616,7 +36616,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R26" t="n">
-        <v>20.29166330939961</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K27" t="n">
-        <v>186.5874962434848</v>
+        <v>247.0876593049809</v>
       </c>
       <c r="L27" t="n">
-        <v>297.6803606378502</v>
+        <v>640.584832100039</v>
       </c>
       <c r="M27" t="n">
-        <v>622.4553810291986</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N27" t="n">
-        <v>640.584832100039</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O27" t="n">
         <v>335.424681996123</v>
@@ -36695,7 +36695,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R27" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.6579754225038</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K29" t="n">
         <v>257.5646495407337</v>
@@ -36853,7 +36853,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R29" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939915</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>108.7451032011632</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K30" t="n">
         <v>186.5874962434848</v>
@@ -36917,19 +36917,19 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M30" t="n">
-        <v>640.5848321000389</v>
+        <v>591.2668520422184</v>
       </c>
       <c r="N30" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O30" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P30" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q30" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37154,10 +37154,10 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M33" t="n">
-        <v>566.6829634324475</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N33" t="n">
-        <v>391.1970995928739</v>
+        <v>615.5326193530516</v>
       </c>
       <c r="O33" t="n">
         <v>640.5848321000389</v>
@@ -37169,7 +37169,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R33" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>257.5646495407337</v>
       </c>
       <c r="L35" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M35" t="n">
         <v>429.0050109457277</v>
@@ -37327,7 +37327,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R35" t="n">
-        <v>20.29166330939915</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37394,16 +37394,16 @@
         <v>366.9313322820405</v>
       </c>
       <c r="N36" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O36" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P36" t="n">
-        <v>249.6795291235323</v>
+        <v>443.0068759113678</v>
       </c>
       <c r="Q36" t="n">
-        <v>270.4976243473736</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,19 +37543,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K38" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L38" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M38" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N38" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O38" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P38" t="n">
         <v>308.745693963795</v>
@@ -37564,7 +37564,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R38" t="n">
-        <v>20.29166330939915</v>
+        <v>20.29166330939823</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>62.98022089091742</v>
+        <v>93.34947739681148</v>
       </c>
       <c r="K39" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L39" t="n">
-        <v>522.015880398028</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M39" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N39" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O39" t="n">
-        <v>640.5848321000389</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P39" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q39" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K40" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L40" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M40" t="n">
         <v>303.6179906468033</v>
@@ -37713,13 +37713,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O40" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P40" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q40" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K42" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L42" t="n">
         <v>297.6803606378502</v>
@@ -37868,16 +37868,16 @@
         <v>366.9313322820406</v>
       </c>
       <c r="N42" t="n">
-        <v>391.197099592874</v>
+        <v>421.566356098768</v>
       </c>
       <c r="O42" t="n">
-        <v>640.5848321000387</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P42" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q42" t="n">
-        <v>190.1413181408518</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R42" t="n">
         <v>24.58388860977094</v>
@@ -38026,7 +38026,7 @@
         <v>429.0050109457278</v>
       </c>
       <c r="N44" t="n">
-        <v>440.6071730376306</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O44" t="n">
         <v>402.5828984949728</v>
@@ -38038,7 +38038,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R44" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939823</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L45" t="n">
-        <v>508.7132618620056</v>
+        <v>522.0158803980272</v>
       </c>
       <c r="M45" t="n">
         <v>366.9313322820406</v>
@@ -38108,10 +38108,10 @@
         <v>391.197099592874</v>
       </c>
       <c r="O45" t="n">
-        <v>335.4246819961231</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P45" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q45" t="n">
         <v>116.4807223308546</v>
